--- a/Issue summary -1.xlsx
+++ b/Issue summary -1.xlsx
@@ -306,7 +306,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +341,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00CC33"/>
         <bgColor rgb="FF00CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -390,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,23 +433,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,20 +536,20 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="1.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="1.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="1.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="30.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="3" width="8.89"/>
@@ -588,23 +598,23 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
@@ -622,24 +632,24 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -650,7 +660,7 @@
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
@@ -660,7 +670,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -678,7 +688,7 @@
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
@@ -688,7 +698,7 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -700,51 +710,51 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="9"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
@@ -754,48 +764,48 @@
       <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="9"/>
-      <c r="D11" s="1" t="s">
+    <row r="11" s="1" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1" t="s">
         <v>61</v>
       </c>
@@ -807,7 +817,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="H12" s="1" t="s">
         <v>61</v>
       </c>
@@ -819,21 +829,21 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13" t="s">
+      <c r="C13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1" t="s">
         <v>69</v>
       </c>
@@ -845,8 +855,8 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>

--- a/Issue summary -1.xlsx
+++ b/Issue summary -1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t xml:space="preserve">Bugs</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">Allow a right click - new on project to begin a new project</t>
   </si>
   <si>
+    <t xml:space="preserve">The “Projects” node (like the one at the top of each individual project) has no context to allow the application to decide what it is that the user wanted to create. Everything else does. This would require more of  a rewrite of how the tree works than we have time for.</t>
+  </si>
+  <si>
     <t xml:space="preserve">System editor</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t xml:space="preserve">Arrange in tree so parent/child relationship is clear</t>
   </si>
   <si>
+    <t xml:space="preserve">More of a tree rewrite than we have time for.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Descripton boxes (all editors)</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t xml:space="preserve">Blank field when added to the diagram, ready to type straight on. </t>
   </si>
   <si>
+    <t xml:space="preserve">That means creating the object with editing pre-selected, which means understanding more of the innards of the graph editor than we have time to do.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bowtie (graphical editor)</t>
   </si>
   <si>
@@ -158,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">Add 'tips' button under 'i' icon for *each* field/group </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use tool tips instead. Text needed.</t>
   </si>
   <si>
     <t xml:space="preserve">Role (links)</t>
@@ -306,7 +318,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,7 +340,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -347,6 +359,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00CCFF"/>
         <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -396,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,11 +467,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,7 +529,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -534,10 +560,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,11 +574,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="1.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="30.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="3" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="1.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="3" width="8.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -565,11 +593,12 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
       <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -587,17 +616,18 @@
       <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="7"/>
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -614,275 +644,297 @@
       <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="L3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" s="1" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="10"/>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="10"/>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="10"/>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="9" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="10"/>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="10"/>
+      <c r="I13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="J15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Issue summary -1.xlsx
+++ b/Issue summary -1.xlsx
@@ -318,7 +318,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +371,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -414,7 +420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -475,11 +481,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,8 +572,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,22 +702,23 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11" t="s">
         <v>30</v>
@@ -758,10 +769,10 @@
       <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10"/>
       <c r="I7" s="9" t="s">
         <v>43</v>
@@ -802,15 +813,16 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="10"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="15" t="s">
         <v>55</v>
       </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="9" t="s">
         <v>56</v>
@@ -881,13 +893,13 @@
     <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>72</v>
       </c>
       <c r="L13" s="9"/>

--- a/Issue summary -1.xlsx
+++ b/Issue summary -1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t xml:space="preserve">Bugs</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">Remove 'other' remove 'test control' default to select and enable free text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconsistent with changes below.</t>
   </si>
   <si>
     <t xml:space="preserve">incorrect naming of data fields</t>
@@ -572,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,54 +871,59 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="10"/>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="K12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="1" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="K14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="10"/>
@@ -924,22 +932,22 @@
         <v>7</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Issue summary -1.xlsx
+++ b/Issue summary -1.xlsx
@@ -321,7 +321,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +374,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -484,16 +478,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -575,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -712,16 +706,16 @@
         <v>26</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11" t="s">
         <v>30</v>
@@ -772,10 +766,10 @@
       <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="10"/>
       <c r="I7" s="9" t="s">
         <v>43</v>
@@ -816,16 +810,16 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="10"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="10"/>
       <c r="I9" s="9" t="s">
         <v>56</v>
@@ -900,13 +894,13 @@
     <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>73</v>
       </c>
       <c r="L13" s="9"/>
@@ -939,16 +933,17 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="1" t="s">
+    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="L16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
